--- a/Schematics/Book2.xlsx
+++ b/Schematics/Book2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4th_semestr\fourth_semestr\Schematics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3197AA-9309-41BF-9452-9EF312029154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD13AC43-590F-4F76-BFC6-C61E6B2017FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B0A7924B-F20F-4A38-AFF6-60232DB845C5}"/>
+    <workbookView xWindow="4050" yWindow="5805" windowWidth="17265" windowHeight="15315" xr2:uid="{B0A7924B-F20F-4A38-AFF6-60232DB845C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -460,7 +461,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,4 +615,16 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D165F02E-A75F-497C-86A5-DAEC277DA53A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>